--- a/Datos/Database by set/Set with text box/Xlsx sets/Multiverse Gift Box (MGB).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Multiverse Gift Box (MGB).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A55"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,378 +444,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bull Elephant</t>
+          <t>('Bull Elephant', ['{3}{G}', 'Creature — Elephant', 'When Bull Elephant enters the battlefield, sacrifice it unless you return two Forests you control to their owner’s hand.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{3}{G}</t>
+          <t>('Dark Privilege', ['{1}{B}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +1/+1.', 'Sacrifice a creature: Regenerate enchanted creature.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Elephant</t>
+          <t>('King Cheetah', ['{3}{G}', 'Creature — Cat', 'Flash', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>When Bull Elephant enters the battlefield, sacrifice it unless you return two Forests you control to their owner’s hand.</t>
+          <t>('Necrosavant', ['{3}{B}{B}{B}', 'Creature — Zombie Giant', '{3}{B}{B}, Sacrifice a creature: Return Necrosavant from your graveyard to the battlefield. Activate this ability only during your upkeep.', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>('Ovinomancer', ['{2}{U}', 'Creature — Human Wizard', 'When Ovinomancer enters the battlefield, sacrifice it unless you return three basic lands you control to their owner’s hand.', '{T}, Return Ovinomancer to its owner’s hand: Destroy target creature. It can’t be regenerated. That creature’s controller creates a 0/1 green Sheep creature token.', '0/1'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dark Privilege</t>
+          <t>('Peace Talks', ['{1}{W}', 'Sorcery', 'This turn and next turn, creatures can’t attack, and players and permanents can’t be the targets of spells or activated abilities.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{1}{B}</t>
+          <t>('Urborg Mindsucker', ['{2}{B}', 'Creature — Horror', '{B}, Sacrifice Urborg Mindsucker: Target opponent discards a card at random. Activate this ability only any time you could cast a sorcery.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Enchantment — Aura</t>
+          <t>('Vampirism', ['{1}{B}', 'Enchantment — Aura', 'Enchant creature', 'When Vampirism enters the battlefield, draw a card at the beginning of the next turn’s upkeep.', 'Enchanted creature gets +1/+1 for each other creature you control.', 'Other creatures you control get -1/-1.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Enchant creature</t>
+          <t>('Viashino Sandstalker', ['{1}{R}{R}', 'Creature — Viashino Warrior', 'Haste (This creature can attack and {T} as soon as it comes under your control.)', 'At the beginning of the end step, return Viashino Sandstalker to its owner’s hand. (Return it only if it’s on the battlefield.)', '4/2'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Enchanted creature gets +1/+1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Sacrifice a creature: Regenerate enchanted creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>King Cheetah</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>{3}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Creature — Cat</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Necrosavant</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>{3}{B}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Creature — Zombie Giant</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>{3}{B}{B}, Sacrifice a creature: Return Necrosavant from your graveyard to the battlefield. Activate this ability only during your upkeep.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Ovinomancer</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>{2}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Creature — Human Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>When Ovinomancer enters the battlefield, sacrifice it unless you return three basic lands you control to their owner’s hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>{T}, Return Ovinomancer to its owner’s hand: Destroy target creature. It can’t be regenerated. That creature’s controller creates a 0/1 green Sheep creature token.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Peace Talks</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>{1}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>This turn and next turn, creatures can’t attack, and players and permanents can’t be the targets of spells or activated abilities.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Urborg Mindsucker</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>{2}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Creature — Horror</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>{B}, Sacrifice Urborg Mindsucker: Target opponent discards a card at random. Activate this ability only any time you could cast a sorcery.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Vampirism</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>{1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Enchantment — Aura</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Enchant creature</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>When Vampirism enters the battlefield, draw a card at the beginning of the next turn’s upkeep.</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Enchanted creature gets +1/+1 for each other creature you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Other creatures you control get -1/-1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Viashino Sandstalker</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>{1}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Creature — Viashino Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Haste (This creature can attack and {T} as soon as it comes under your control.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>At the beginning of the end step, return Viashino Sandstalker to its owner’s hand. (Return it only if it’s on the battlefield.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>4/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Wicked Reward</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>{1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>As an additional cost to cast this spell, sacrifice a creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Target creature gets +4/+2 until end of turn.</t>
+          <t>('Wicked Reward', ['{1}{B}', 'Instant', 'As an additional cost to cast this spell, sacrifice a creature.', 'Target creature gets +4/+2 until end of turn.'])</t>
         </is>
       </c>
     </row>
